--- a/v1_201901/stat.xlsx
+++ b/v1_201901/stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tingh\AppData\Local\Packages\TheDebianProject.DebianGNULinux_76v4gfsz19hv4\LocalState\rootfs\home\td\alz\v1_201901\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{488E0D4A-12C9-48B3-BFA0-731EADC27B85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD16BFC2-5D61-4A7C-AF0E-E2E91917C85A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{CE6C85A2-ABDC-4861-9195-C19CA29644C4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="497">
   <si>
     <t>Oxford University</t>
   </si>
@@ -810,715 +810,718 @@
     <t>Vol</t>
   </si>
   <si>
-    <t>https://.../bsb10501962.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501963.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501964.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501965.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501966.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501967.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501968.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501969.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501970.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501971.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501972.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501973.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501974.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501975.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501976.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501977.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501978.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501979.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501980.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501981.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501982.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501983.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501984.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501985.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501986.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501987.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501988.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501989.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501990.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501991.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501992.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501993.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501994.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501995.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501996.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10628808.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10628809.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501997.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501998.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10501999.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502000.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502001.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502002.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502003.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502004.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502005.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502006.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502007.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502008.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502009.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502010.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502011.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502012.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502013.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502014.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502015.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502016.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10628810.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10628811.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10628812.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10628813.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502017.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502018.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502019.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502020.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502021.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502022.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502023.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502024.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502025.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502026.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502027.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502028.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502029.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502030.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502031.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502032.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502033.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502034.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502035.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502036.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502037.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502038.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502039.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502040.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502041.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502042.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502043.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502044.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_t9fjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter297unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_MSlRAAAAYAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter152unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_ogs4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_Pww4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter186unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_XdzjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_ByBRAAAAYAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_sBE4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_NhI4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_lyFRAAAAYAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502045.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502046.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502047.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter198unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502048.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502049.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502050.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter215unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502051.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502052.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_f9bjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_cogFAAAAQAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502054.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502055.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502056.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502057.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502058.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502059.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502060.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502061.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502062.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502063.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502064.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502065.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502066.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502067.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502068.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502069.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502070.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502071.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502072.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502073.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502074.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502075.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502076.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502077.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502078.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502079.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502080.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502081.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502084.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502082.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502083.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_ehw4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_cN7jAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502085.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502087.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502088.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_M-XjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_quXjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_uhE4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_ohI4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502093.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502091.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502092.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502096.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502094.xml</t>
-  </si>
-  <si>
-    <t>https://.../bsb10502095.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_NtXjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_nNXjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_3tTjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter183unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_ZTQ4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_zDQ4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter05jahrgoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter00schugoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter64unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_whY4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter298unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_BdCEAAAAIAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_aDI4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter15jahrgoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter262unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter216unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter276unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter161unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_ZRs4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter16unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter24unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_BB04AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_Wx04AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter13unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_cR44AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter208unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter162unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter43unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter01goog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter181unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter66unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter211unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter48unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_wokFAAAAQAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_fSM4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_cCQ4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_Hig4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_fCg4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter32unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter82unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter245unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter34unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter170unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_Qiw4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb__ClRAAAAYAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter115unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter196unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter33unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter163unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter10unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_PRU4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter96unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter55unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter83unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter226unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_Chg4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_Yxg4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter355unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter30unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_rzA4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter13jahrgoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_mxs4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_-hk4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter136unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter42unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter46unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter23unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_qsaEAAAAIAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_7R44AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_Fy9RAAAAYAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeinelitera1845unse.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_s4crAAAAYAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter201unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter77unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter00jahrgoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeinelitera1847unse.xml</t>
-  </si>
-  <si>
-    <t>https://.../allgemeineliter253unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://.../bub_gb_gR5RAAAAYAAJ.xml</t>
+    <t>261</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501962.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501963.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501964.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501965.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501966.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501967.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501968.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501969.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501970.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501971.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501972.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501973.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501974.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501975.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501976.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501977.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501978.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501979.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501980.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501981.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501982.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501983.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501984.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501985.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501986.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501987.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501988.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501989.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501990.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501991.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501992.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501993.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501994.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501995.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501996.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10628808.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10628809.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501997.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501998.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501999.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502000.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502001.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502002.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502003.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502004.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502005.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502006.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502007.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502008.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502009.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502010.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502011.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502012.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502013.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502014.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502015.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502016.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10628810.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10628811.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10628812.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10628813.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502017.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502018.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502019.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502020.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502021.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502022.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502023.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502024.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502025.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502026.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502027.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502028.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502029.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502030.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502031.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502032.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502033.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502034.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502035.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502036.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502037.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502038.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502039.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502040.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502041.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502042.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502043.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502044.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_t9fjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter297unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_MSlRAAAAYAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter152unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_ogs4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Pww4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter186unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_XdzjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_ByBRAAAAYAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_sBE4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_NhI4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_lyFRAAAAYAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502045.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502046.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502047.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter198unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502048.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502049.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502050.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter215unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502051.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502052.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_f9bjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_cogFAAAAQAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502054.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502055.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502056.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502057.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502058.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502059.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502060.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502061.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502062.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502063.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502064.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502065.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502066.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502067.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502068.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502069.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502070.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502071.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502072.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502073.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502074.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502075.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502076.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502077.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502078.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502079.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502080.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502081.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502084.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502082.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502083.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_ehw4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_cN7jAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502085.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502087.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502088.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_M-XjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_quXjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_uhE4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_ohI4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502093.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502091.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502092.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502096.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502094.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502095.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_NtXjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_nNXjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_3tTjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter183unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_ZTQ4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_zDQ4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter05jahrgoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter00schugoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter64unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_whY4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter298unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_BdCEAAAAIAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_aDI4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter15jahrgoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter262unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter216unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter276unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter161unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_ZRs4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter16unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter24unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_BB04AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Wx04AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter13unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_cR44AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter208unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter162unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter43unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter01goog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter181unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter66unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter211unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter48unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_wokFAAAAQAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_fSM4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_cCQ4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Hig4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_fCg4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter32unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter82unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter245unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter34unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter170unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Qiw4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb__ClRAAAAYAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter115unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter196unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter33unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter163unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter10unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_PRU4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter96unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter55unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter83unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter226unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Chg4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Yxg4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter355unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter30unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_rzA4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter13jahrgoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_mxs4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_-hk4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter136unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter42unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter46unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter23unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_qsaEAAAAIAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_7R44AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Fy9RAAAAYAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeinelitera1845unse.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_s4crAAAAYAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter201unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter77unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter00jahrgoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeinelitera1847unse.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter253unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_gR5RAAAAYAAJ.xml</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1537,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1886,23 +1889,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF58712-953A-4AD5-82DC-5D8E2FF48E2C}">
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>252</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1785</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F2" s="3">
         <v>436</v>
@@ -1948,7 +1951,7 @@
         <v>416884</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1785</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F3" s="3">
         <v>436</v>
@@ -1971,7 +1974,7 @@
         <v>394376</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1785</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F4" s="3">
         <v>474</v>
@@ -1994,7 +1997,7 @@
         <v>438761</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1785</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F5" s="3">
         <v>428</v>
@@ -2017,7 +2020,7 @@
         <v>389103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1786</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F6" s="3">
         <v>356</v>
@@ -2040,7 +2043,7 @@
         <v>335891</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1786</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F7" s="3">
         <v>342</v>
@@ -2063,7 +2066,7 @@
         <v>326722</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1786</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F8" s="3">
         <v>346</v>
@@ -2086,7 +2089,7 @@
         <v>338027</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1786</v>
       </c>
@@ -2100,7 +2103,7 @@
         <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F9" s="3">
         <v>348</v>
@@ -2109,7 +2112,7 @@
         <v>344725</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1786</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F10" s="3">
         <v>430</v>
@@ -2132,7 +2135,7 @@
         <v>431553</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1787</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F11" s="3">
         <v>446</v>
@@ -2155,7 +2158,7 @@
         <v>445804</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1787</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F12" s="3">
         <v>400</v>
@@ -2178,7 +2181,7 @@
         <v>395960</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1787</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F13" s="3">
         <v>490</v>
@@ -2201,7 +2204,7 @@
         <v>487585</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1787</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F14" s="3">
         <v>512</v>
@@ -2224,7 +2227,7 @@
         <v>520304</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1788</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F15" s="3">
         <v>490</v>
@@ -2247,7 +2250,7 @@
         <v>489293</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1788</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F16" s="3">
         <v>470</v>
@@ -2270,7 +2273,7 @@
         <v>476849</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1788</v>
       </c>
@@ -2284,7 +2287,7 @@
         <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F17" s="3">
         <v>544</v>
@@ -2293,7 +2296,7 @@
         <v>556867</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1788</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F18" s="3">
         <v>550</v>
@@ -2316,7 +2319,7 @@
         <v>549319</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1789</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>79</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F19" s="3">
         <v>624</v>
@@ -2339,7 +2342,7 @@
         <v>586246</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1789</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>80</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F20" s="3">
         <v>554</v>
@@ -2362,7 +2365,7 @@
         <v>527634</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1789</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F21" s="3">
         <v>622</v>
@@ -2385,7 +2388,7 @@
         <v>602111</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1789</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F22" s="3">
         <v>572</v>
@@ -2408,7 +2411,7 @@
         <v>537396</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1790</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F23" s="3">
         <v>564</v>
@@ -2431,7 +2434,7 @@
         <v>549478</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1790</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F24" s="3">
         <v>560</v>
@@ -2454,7 +2457,7 @@
         <v>529411</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1790</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>85</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F25" s="3">
         <v>646</v>
@@ -2477,7 +2480,7 @@
         <v>607272</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1791</v>
       </c>
@@ -2491,7 +2494,7 @@
         <v>86</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F26" s="3">
         <v>708</v>
@@ -2500,7 +2503,7 @@
         <v>683310</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1791</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F27" s="3">
         <v>620</v>
@@ -2523,7 +2526,7 @@
         <v>640132</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1791</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>88</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F28" s="3">
         <v>504</v>
@@ -2546,7 +2549,7 @@
         <v>441247</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1791</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>89</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F29" s="3">
         <v>522</v>
@@ -2569,7 +2572,7 @@
         <v>573363</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1791</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>90</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F30" s="3">
         <v>570</v>
@@ -2592,7 +2595,7 @@
         <v>619054</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1792</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F31" s="3">
         <v>548</v>
@@ -2615,7 +2618,7 @@
         <v>582364</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1792</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>92</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F32" s="3">
         <v>546</v>
@@ -2638,7 +2641,7 @@
         <v>576006</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1792</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>93</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F33" s="3">
         <v>522</v>
@@ -2661,7 +2664,7 @@
         <v>569902</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1792</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F34" s="3">
         <v>540</v>
@@ -2684,7 +2687,7 @@
         <v>576654</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1793</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>95</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F35" s="3">
         <v>522</v>
@@ -2707,7 +2710,7 @@
         <v>536745</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1793</v>
       </c>
@@ -2721,7 +2724,7 @@
         <v>96</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F36" s="3">
         <v>558</v>
@@ -2730,7 +2733,7 @@
         <v>579369</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1793</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>194</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F37" s="3">
         <v>538</v>
@@ -2753,7 +2756,7 @@
         <v>572717</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1793</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>195</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F38" s="3">
         <v>504</v>
@@ -2776,7 +2779,7 @@
         <v>537462</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1794</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>97</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F39" s="3">
         <v>594</v>
@@ -2799,7 +2802,7 @@
         <v>615253</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1794</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>98</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F40" s="3">
         <v>602</v>
@@ -2822,7 +2825,7 @@
         <v>635273</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1794</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>99</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F41" s="3">
         <v>640</v>
@@ -2845,7 +2848,7 @@
         <v>688439</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1795</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>100</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F42" s="3">
         <v>540</v>
@@ -2868,7 +2871,7 @@
         <v>577821</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1795</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>101</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F43" s="3">
         <v>558</v>
@@ -2891,7 +2894,7 @@
         <v>534605</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1795</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>102</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F44" s="3">
         <v>506</v>
@@ -2914,7 +2917,7 @@
         <v>527070</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1795</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>103</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F45" s="3">
         <v>550</v>
@@ -2937,7 +2940,7 @@
         <v>546215</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1795</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>104</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F46" s="3">
         <v>578</v>
@@ -2960,7 +2963,7 @@
         <v>604217</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1796</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>105</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F47" s="3">
         <v>636</v>
@@ -2983,7 +2986,7 @@
         <v>666962</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1796</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>106</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F48" s="3">
         <v>622</v>
@@ -3006,7 +3009,7 @@
         <v>644379</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1796</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>107</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F49" s="3">
         <v>684</v>
@@ -3029,7 +3032,7 @@
         <v>716827</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1796</v>
       </c>
@@ -3043,7 +3046,7 @@
         <v>108</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F50" s="3">
         <v>690</v>
@@ -3052,7 +3055,7 @@
         <v>736619</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1797</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>109</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F51" s="3">
         <v>608</v>
@@ -3075,7 +3078,7 @@
         <v>628524</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1797</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>110</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F52" s="3">
         <v>616</v>
@@ -3098,7 +3101,7 @@
         <v>616743</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1797</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>111</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F53" s="3">
         <v>638</v>
@@ -3121,7 +3124,7 @@
         <v>662543</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1797</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>112</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F54" s="3">
         <v>644</v>
@@ -3144,7 +3147,7 @@
         <v>635767</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1798</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>113</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F55" s="3">
         <v>690</v>
@@ -3167,7 +3170,7 @@
         <v>697357</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1798</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>114</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F56" s="3">
         <v>592</v>
@@ -3190,7 +3193,7 @@
         <v>576319</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1798</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>115</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F57" s="3">
         <v>582</v>
@@ -3213,7 +3216,7 @@
         <v>566379</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1798</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>116</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F58" s="3">
         <v>668</v>
@@ -3236,7 +3239,7 @@
         <v>644387</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1799</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>196</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F59" s="3">
         <v>664</v>
@@ -3259,7 +3262,7 @@
         <v>1456767</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1799</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>197</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F60" s="3">
         <v>614</v>
@@ -3282,7 +3285,7 @@
         <v>1345442</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1799</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>198</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F61" s="3">
         <v>594</v>
@@ -3305,7 +3308,7 @@
         <v>1333401</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1799</v>
       </c>
@@ -3319,7 +3322,7 @@
         <v>199</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F62" s="3">
         <v>970</v>
@@ -3328,7 +3331,7 @@
         <v>2126689</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1800</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>117</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F63" s="3">
         <v>596</v>
@@ -3351,7 +3354,7 @@
         <v>561991</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1800</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>118</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F64" s="3">
         <v>630</v>
@@ -3374,7 +3377,7 @@
         <v>615345</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1800</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>119</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F65" s="3">
         <v>704</v>
@@ -3397,7 +3400,7 @@
         <v>691971</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1800</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>120</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F66" s="3">
         <v>672</v>
@@ -3420,7 +3423,7 @@
         <v>652863</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1801</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>121</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F67" s="3">
         <v>798</v>
@@ -3443,7 +3446,7 @@
         <v>753562</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1801</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>122</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F68" s="3">
         <v>670</v>
@@ -3466,7 +3469,7 @@
         <v>632790</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1801</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>123</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F69" s="3">
         <v>682</v>
@@ -3489,7 +3492,7 @@
         <v>639149</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1801</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>124</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F70" s="3">
         <v>656</v>
@@ -3512,7 +3515,7 @@
         <v>546874</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1802</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>125</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F71" s="3">
         <v>664</v>
@@ -3535,7 +3538,7 @@
         <v>607468</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1802</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>126</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F72" s="3">
         <v>620</v>
@@ -3558,7 +3561,7 @@
         <v>536166</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1802</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>127</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F73" s="3">
         <v>720</v>
@@ -3581,7 +3584,7 @@
         <v>690567</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1802</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>128</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F74" s="3">
         <v>700</v>
@@ -3604,7 +3607,7 @@
         <v>659641</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1803</v>
       </c>
@@ -3618,7 +3621,7 @@
         <v>129</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F75" s="3">
         <v>708</v>
@@ -3627,7 +3630,7 @@
         <v>677549</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1803</v>
       </c>
@@ -3641,7 +3644,7 @@
         <v>130</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F76" s="3">
         <v>700</v>
@@ -3650,7 +3653,7 @@
         <v>681439</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1803</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>131</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F77" s="3">
         <v>636</v>
@@ -3673,7 +3676,7 @@
         <v>600964</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1803</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>132</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F78" s="3">
         <v>558</v>
@@ -3696,7 +3699,7 @@
         <v>530703</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1804</v>
       </c>
@@ -3710,7 +3713,7 @@
         <v>133</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F79" s="3">
         <v>670</v>
@@ -3719,7 +3722,7 @@
         <v>640451</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1804</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>134</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F80" s="3">
         <v>642</v>
@@ -3742,7 +3745,7 @@
         <v>615006</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1804</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>135</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F81" s="3">
         <v>612</v>
@@ -3765,7 +3768,7 @@
         <v>584233</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1804</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v>136</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F82" s="3">
         <v>630</v>
@@ -3788,7 +3791,7 @@
         <v>602062</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1805</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>137</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F83" s="3">
         <v>586</v>
@@ -3811,7 +3814,7 @@
         <v>561440</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1805</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>138</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F84" s="3">
         <v>638</v>
@@ -3834,7 +3837,7 @@
         <v>618593</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1805</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>139</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F85" s="3">
         <v>572</v>
@@ -3857,7 +3860,7 @@
         <v>563056</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1805</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>140</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F86" s="3">
         <v>558</v>
@@ -3880,7 +3883,7 @@
         <v>542175</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1806</v>
       </c>
@@ -3894,7 +3897,7 @@
         <v>141</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F87" s="3">
         <v>548</v>
@@ -3903,7 +3906,7 @@
         <v>531471</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1806</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>142</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F88" s="3">
         <v>500</v>
@@ -3926,7 +3929,7 @@
         <v>485168</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1806</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>143</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F89" s="3">
         <v>550</v>
@@ -3949,7 +3952,7 @@
         <v>537054</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1806</v>
       </c>
@@ -3963,7 +3966,7 @@
         <v>144</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F90" s="3">
         <v>422</v>
@@ -3972,7 +3975,7 @@
         <v>415163</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1807</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>247</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F91" s="3">
         <v>440</v>
@@ -3995,7 +3998,7 @@
         <v>445494</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1807</v>
       </c>
@@ -4009,7 +4012,7 @@
         <v>38</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F92" s="3">
         <v>675</v>
@@ -4018,7 +4021,7 @@
         <v>720365</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1807</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>213</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F93" s="3">
         <v>1056</v>
@@ -4041,7 +4044,7 @@
         <v>1027245</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1808</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F94" s="3">
         <v>539</v>
@@ -4064,7 +4067,7 @@
         <v>542453</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1808</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>238</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F95" s="3">
         <v>596</v>
@@ -4087,7 +4090,7 @@
         <v>603804</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1808</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>217</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F96" s="3">
         <v>634</v>
@@ -4110,7 +4113,7 @@
         <v>616683</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1809</v>
       </c>
@@ -4124,7 +4127,7 @@
         <v>23</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F97" s="3">
         <v>534</v>
@@ -4133,7 +4136,7 @@
         <v>549669</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1809</v>
       </c>
@@ -4147,7 +4150,7 @@
         <v>220</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F98" s="3">
         <v>662</v>
@@ -4156,7 +4159,7 @@
         <v>666765</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1809</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>207</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F99" s="3">
         <v>995</v>
@@ -4179,7 +4182,7 @@
         <v>1003366</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1810</v>
       </c>
@@ -4193,7 +4196,7 @@
         <v>246</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F100" s="3">
         <v>532</v>
@@ -4202,7 +4205,7 @@
         <v>533295</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1810</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>214</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F101" s="3">
         <v>498</v>
@@ -4225,7 +4228,7 @@
         <v>490398</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1810</v>
       </c>
@@ -4239,7 +4242,7 @@
         <v>235</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F102" s="3">
         <v>1139</v>
@@ -4248,7 +4251,7 @@
         <v>1141078</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1811</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>145</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F103" s="3">
         <v>514</v>
@@ -4271,7 +4274,7 @@
         <v>498079</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1811</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>146</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F104" s="3">
         <v>506</v>
@@ -4294,7 +4297,7 @@
         <v>500039</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1811</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>147</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F105" s="3">
         <v>496</v>
@@ -4317,7 +4320,7 @@
         <v>489066</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1811</v>
       </c>
@@ -4331,7 +4334,7 @@
         <v>25</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F106" s="3">
         <v>621</v>
@@ -4340,7 +4343,7 @@
         <v>641903</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1812</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>148</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F107" s="3">
         <v>466</v>
@@ -4363,7 +4366,7 @@
         <v>444703</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1812</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>149</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F108" s="3">
         <v>462</v>
@@ -4386,7 +4389,7 @@
         <v>448782</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1812</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>150</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F109" s="3">
         <v>544</v>
@@ -4409,7 +4412,7 @@
         <v>532458</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1812</v>
       </c>
@@ -4423,7 +4426,7 @@
         <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F110" s="3">
         <v>582</v>
@@ -4432,7 +4435,7 @@
         <v>594405</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1813</v>
       </c>
@@ -4446,7 +4449,7 @@
         <v>151</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F111" s="3">
         <v>454</v>
@@ -4455,7 +4458,7 @@
         <v>433718</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1813</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>152</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F112" s="3">
         <v>448</v>
@@ -4478,7 +4481,7 @@
         <v>422380</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1813</v>
       </c>
@@ -4492,7 +4495,7 @@
         <v>231</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F113" s="3">
         <v>416</v>
@@ -4501,7 +4504,7 @@
         <v>412587</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1813</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>229</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F114" s="3">
         <v>598</v>
@@ -4524,7 +4527,7 @@
         <v>599087</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1814</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>153</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F115" s="3">
         <v>430</v>
@@ -4547,7 +4550,7 @@
         <v>404403</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>1814</v>
       </c>
@@ -4561,7 +4564,7 @@
         <v>154</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F116" s="3">
         <v>426</v>
@@ -4570,7 +4573,7 @@
         <v>394479</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1814</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>155</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F117" s="3">
         <v>488</v>
@@ -4593,7 +4596,7 @@
         <v>462069</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>1814</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>156</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F118" s="3">
         <v>589</v>
@@ -4616,7 +4619,7 @@
         <v>578626</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>1815</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>157</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F119" s="3">
         <v>430</v>
@@ -4639,7 +4642,7 @@
         <v>405335</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1815</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>158</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F120" s="3">
         <v>438</v>
@@ -4662,7 +4665,7 @@
         <v>411219</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>1815</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>159</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F121" s="3">
         <v>492</v>
@@ -4685,7 +4688,7 @@
         <v>460861</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1815</v>
       </c>
@@ -4699,7 +4702,7 @@
         <v>160</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F122" s="3">
         <v>586</v>
@@ -4708,7 +4711,7 @@
         <v>576210</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>1816</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>161</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F123" s="3">
         <v>444</v>
@@ -4731,7 +4734,7 @@
         <v>415865</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>1816</v>
       </c>
@@ -4745,7 +4748,7 @@
         <v>162</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F124" s="3">
         <v>446</v>
@@ -4754,7 +4757,7 @@
         <v>424633</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>1816</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>163</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F125" s="3">
         <v>468</v>
@@ -4777,7 +4780,7 @@
         <v>438095</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>1816</v>
       </c>
@@ -4791,7 +4794,7 @@
         <v>164</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F126" s="3">
         <v>620</v>
@@ -4800,7 +4803,7 @@
         <v>618603</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>1817</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>165</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F127" s="3">
         <v>458</v>
@@ -4823,7 +4826,7 @@
         <v>422885</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>1817</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>166</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F128" s="3">
         <v>458</v>
@@ -4846,7 +4849,7 @@
         <v>432568</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>1817</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>167</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F129" s="3">
         <v>458</v>
@@ -4869,7 +4872,7 @@
         <v>425413</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>1817</v>
       </c>
@@ -4883,7 +4886,7 @@
         <v>168</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F130" s="3">
         <v>584</v>
@@ -4892,7 +4895,7 @@
         <v>569700</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>1818</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>169</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F131" s="3">
         <v>460</v>
@@ -4915,7 +4918,7 @@
         <v>420989</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>1818</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>170</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F132" s="3">
         <v>474</v>
@@ -4938,7 +4941,7 @@
         <v>443450</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>1818</v>
       </c>
@@ -4952,7 +4955,7 @@
         <v>171</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F133" s="3">
         <v>466</v>
@@ -4961,7 +4964,7 @@
         <v>427214</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1818</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v>172</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F134" s="3">
         <v>586</v>
@@ -4984,7 +4987,7 @@
         <v>579710</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1819</v>
       </c>
@@ -4998,7 +5001,7 @@
         <v>173</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F135" s="3">
         <v>470</v>
@@ -5007,7 +5010,7 @@
         <v>437618</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1819</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>174</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F136" s="3">
         <v>446</v>
@@ -5030,7 +5033,7 @@
         <v>421670</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1819</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>175</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F137" s="3">
         <v>470</v>
@@ -5053,7 +5056,7 @@
         <v>431878</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1819</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>176</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F138" s="3">
         <v>574</v>
@@ -5076,7 +5079,7 @@
         <v>556431</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1820</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>177</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F139" s="3">
         <v>476</v>
@@ -5099,7 +5102,7 @@
         <v>449974</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1820</v>
       </c>
@@ -5113,7 +5116,7 @@
         <v>178</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F140" s="3">
         <v>488</v>
@@ -5122,7 +5125,7 @@
         <v>460202</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1820</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>179</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F141" s="3">
         <v>468</v>
@@ -5145,7 +5148,7 @@
         <v>437067</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1820</v>
       </c>
@@ -5159,7 +5162,7 @@
         <v>180</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F142" s="3">
         <v>584</v>
@@ -5168,7 +5171,7 @@
         <v>565850</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1821</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>184</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F143" s="3">
         <v>586</v>
@@ -5191,7 +5194,7 @@
         <v>562400</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1821</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>181</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F144" s="3">
         <v>682</v>
@@ -5214,7 +5217,7 @@
         <v>631372</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1821</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>183</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F145" s="3">
         <v>710</v>
@@ -5237,7 +5240,7 @@
         <v>659904</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1822</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>230</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F146" s="3">
         <v>466</v>
@@ -5260,7 +5263,7 @@
         <v>446377</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1822</v>
       </c>
@@ -5274,7 +5277,7 @@
         <v>227</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F147" s="3">
         <v>616</v>
@@ -5283,7 +5286,7 @@
         <v>629572</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1822</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>185</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F148" s="3">
         <v>690</v>
@@ -5306,7 +5309,7 @@
         <v>646885</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1823</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>186</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F149" s="3">
         <v>684</v>
@@ -5329,7 +5332,7 @@
         <v>638135</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1823</v>
       </c>
@@ -5343,7 +5346,7 @@
         <v>187</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F150" s="3">
         <v>694</v>
@@ -5352,7 +5355,7 @@
         <v>649351</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>1824</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>212</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F151" s="3">
         <v>444</v>
@@ -5375,7 +5378,7 @@
         <v>421026</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1824</v>
       </c>
@@ -5389,7 +5392,7 @@
         <v>242</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F152" s="3">
         <v>444</v>
@@ -5398,7 +5401,7 @@
         <v>421198</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1824</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>248</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F153" s="3">
         <v>472</v>
@@ -5421,7 +5424,7 @@
         <v>454168</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1824</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>239</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F154" s="3">
         <v>588</v>
@@ -5444,7 +5447,7 @@
         <v>580157</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1825</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>190</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F155" s="3">
         <v>618</v>
@@ -5467,7 +5470,7 @@
         <v>605809</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1825</v>
       </c>
@@ -5481,7 +5484,7 @@
         <v>188</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F156" s="3">
         <v>680</v>
@@ -5490,7 +5493,7 @@
         <v>636781</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>1825</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>189</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F157" s="3">
         <v>696</v>
@@ -5513,7 +5516,7 @@
         <v>650419</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1826</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>193</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F158" s="3">
         <v>626</v>
@@ -5536,7 +5539,7 @@
         <v>608149</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>1826</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>191</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F159" s="3">
         <v>702</v>
@@ -5559,7 +5562,7 @@
         <v>654179</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1826</v>
       </c>
@@ -5573,7 +5576,7 @@
         <v>192</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F160" s="3">
         <v>700</v>
@@ -5582,7 +5585,7 @@
         <v>630637</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>1827</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>215</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F161" s="3">
         <v>464</v>
@@ -5605,7 +5608,7 @@
         <v>439769</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>1827</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>237</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F162" s="3">
         <v>446</v>
@@ -5628,7 +5631,7 @@
         <v>421909</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1827</v>
       </c>
@@ -5642,7 +5645,7 @@
         <v>202</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F163" s="3">
         <v>618</v>
@@ -5651,7 +5654,7 @@
         <v>628972</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1828</v>
       </c>
@@ -5665,7 +5668,7 @@
         <v>22</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F164" s="3">
         <v>458</v>
@@ -5674,7 +5677,7 @@
         <v>427586</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>1828</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>223</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F165" s="3">
         <v>450</v>
@@ -5697,7 +5700,7 @@
         <v>439083</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>1828</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>251</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F166" s="3">
         <v>506</v>
@@ -5720,7 +5723,7 @@
         <v>492011</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>1828</v>
       </c>
@@ -5734,7 +5737,7 @@
         <v>4</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F167" s="3">
         <v>587</v>
@@ -5743,7 +5746,7 @@
         <v>559995</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1829</v>
       </c>
@@ -5757,7 +5760,7 @@
         <v>2</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F168" s="3">
         <v>347</v>
@@ -5766,7 +5769,7 @@
         <v>336100</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1829</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>52</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F169" s="3">
         <v>342</v>
@@ -5789,7 +5792,7 @@
         <v>355950</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1829</v>
       </c>
@@ -5803,7 +5806,7 @@
         <v>249</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F170" s="3">
         <v>374</v>
@@ -5812,7 +5815,7 @@
         <v>379733</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1829</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>39</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F171" s="3">
         <v>581</v>
@@ -5835,7 +5838,7 @@
         <v>590844</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>1829</v>
       </c>
@@ -5849,7 +5852,7 @@
         <v>205</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F172" s="3">
         <v>480</v>
@@ -5858,7 +5861,7 @@
         <v>410505</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1830</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>225</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F173" s="3">
         <v>348</v>
@@ -5881,7 +5884,7 @@
         <v>334035</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>1830</v>
       </c>
@@ -5895,7 +5898,7 @@
         <v>15</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F174" s="3">
         <v>347</v>
@@ -5904,7 +5907,7 @@
         <v>344401</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>1830</v>
       </c>
@@ -5918,7 +5921,7 @@
         <v>36</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F175" s="3">
         <v>377</v>
@@ -5927,7 +5930,7 @@
         <v>375109</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>1830</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>30</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F176" s="3">
         <v>572</v>
@@ -5950,7 +5953,7 @@
         <v>571962</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>1830</v>
       </c>
@@ -5964,7 +5967,7 @@
         <v>37</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F177" s="3">
         <v>381</v>
@@ -5973,7 +5976,7 @@
         <v>321293</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>1831</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>16</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F178" s="3">
         <v>344</v>
@@ -5996,7 +5999,7 @@
         <v>343468</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>1831</v>
       </c>
@@ -6010,7 +6013,7 @@
         <v>222</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F179" s="3">
         <v>346</v>
@@ -6019,7 +6022,7 @@
         <v>333839</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>1831</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>19</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F180" s="3">
         <v>371</v>
@@ -6042,7 +6045,7 @@
         <v>374280</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>1831</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>34</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F181" s="3">
         <v>486</v>
@@ -6065,7 +6068,7 @@
         <v>485011</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>1831</v>
       </c>
@@ -6079,7 +6082,7 @@
         <v>204</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F182" s="3">
         <v>354</v>
@@ -6088,7 +6091,7 @@
         <v>285313</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>1832</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v>219</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F183" s="3">
         <v>348</v>
@@ -6111,7 +6114,7 @@
         <v>331678</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>1832</v>
       </c>
@@ -6125,7 +6128,7 @@
         <v>12</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F184" s="3">
         <v>328</v>
@@ -6134,7 +6137,7 @@
         <v>315963</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>1832</v>
       </c>
@@ -6148,7 +6151,7 @@
         <v>228</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F185" s="3">
         <v>374</v>
@@ -6157,7 +6160,7 @@
         <v>371880</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>1832</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>27</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F186" s="3">
         <v>480</v>
@@ -6180,7 +6183,7 @@
         <v>472023</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>1832</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>17</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F187" s="3">
         <v>358</v>
@@ -6203,7 +6206,7 @@
         <v>297017</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>1833</v>
       </c>
@@ -6217,7 +6220,7 @@
         <v>47</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F188" s="3">
         <v>328</v>
@@ -6226,7 +6229,7 @@
         <v>329378</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>1833</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>3</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F189" s="3">
         <v>327</v>
@@ -6249,7 +6252,7 @@
         <v>316715</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>1833</v>
       </c>
@@ -6263,7 +6266,7 @@
         <v>21</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F190" s="3">
         <v>360</v>
@@ -6272,7 +6275,7 @@
         <v>372197</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>1833</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>53</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F191" s="3">
         <v>492</v>
@@ -6295,7 +6298,7 @@
         <v>489874</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>1833</v>
       </c>
@@ -6309,7 +6312,7 @@
         <v>28</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F192" s="3">
         <v>366</v>
@@ -6318,7 +6321,7 @@
         <v>301989</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>1834</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>50</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F193" s="3">
         <v>328</v>
@@ -6341,7 +6344,7 @@
         <v>324168</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>1834</v>
       </c>
@@ -6355,7 +6358,7 @@
         <v>250</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F194" s="3">
         <v>325</v>
@@ -6364,7 +6367,7 @@
         <v>313807</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>1834</v>
       </c>
@@ -6378,7 +6381,7 @@
         <v>233</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F195" s="3">
         <v>350</v>
@@ -6387,7 +6390,7 @@
         <v>339145</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>1834</v>
       </c>
@@ -6401,7 +6404,7 @@
         <v>226</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F196" s="3">
         <v>524</v>
@@ -6410,7 +6413,7 @@
         <v>523327</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>1834</v>
       </c>
@@ -6424,7 +6427,7 @@
         <v>210</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F197" s="3">
         <v>394</v>
@@ -6433,7 +6436,7 @@
         <v>322923</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>1835</v>
       </c>
@@ -6447,7 +6450,7 @@
         <v>232</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F198" s="3">
         <v>368</v>
@@ -6456,7 +6459,7 @@
         <v>363995</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1835</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>41</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F199" s="3">
         <v>314</v>
@@ -6479,7 +6482,7 @@
         <v>310947</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>1835</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>55</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F200" s="3">
         <v>318</v>
@@ -6502,7 +6505,7 @@
         <v>320164</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1835</v>
       </c>
@@ -6516,7 +6519,7 @@
         <v>33</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F201" s="3">
         <v>486</v>
@@ -6525,7 +6528,7 @@
         <v>482147</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>1835</v>
       </c>
@@ -6539,7 +6542,7 @@
         <v>43</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F202" s="3">
         <v>322</v>
@@ -6548,7 +6551,7 @@
         <v>262252</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>1836</v>
       </c>
@@ -6562,7 +6565,7 @@
         <v>20</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F203" s="3">
         <v>486</v>
@@ -6571,7 +6574,7 @@
         <v>492763</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>1836</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>218</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F204" s="3">
         <v>290</v>
@@ -6594,7 +6597,7 @@
         <v>228597</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>1836</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>224</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F205" s="3">
         <v>1008</v>
@@ -6617,7 +6620,7 @@
         <v>1009261</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>1837</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>7</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F206" s="3">
         <v>326</v>
@@ -6640,7 +6643,7 @@
         <v>326858</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>1837</v>
       </c>
@@ -6654,7 +6657,7 @@
         <v>24</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F207" s="3">
         <v>326</v>
@@ -6663,7 +6666,7 @@
         <v>329162</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>1837</v>
       </c>
@@ -6677,7 +6680,7 @@
         <v>42</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F208" s="3">
         <v>326</v>
@@ -6686,7 +6689,7 @@
         <v>320396</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>1837</v>
       </c>
@@ -6700,7 +6703,7 @@
         <v>18</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F209" s="3">
         <v>486</v>
@@ -6709,7 +6712,7 @@
         <v>497270</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>1837</v>
       </c>
@@ -6723,7 +6726,7 @@
         <v>6</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F210" s="3">
         <v>428</v>
@@ -6732,7 +6735,7 @@
         <v>369630</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>1838</v>
       </c>
@@ -6746,7 +6749,7 @@
         <v>216</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F211" s="3">
         <v>329</v>
@@ -6755,7 +6758,7 @@
         <v>315385</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1838</v>
       </c>
@@ -6769,7 +6772,7 @@
         <v>57</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F212" s="3">
         <v>326</v>
@@ -6778,7 +6781,7 @@
         <v>331041</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>1838</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>51</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F213" s="3">
         <v>330</v>
@@ -6801,7 +6804,7 @@
         <v>318909</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>1838</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>56</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F214" s="3">
         <v>458</v>
@@ -6824,7 +6827,7 @@
         <v>465146</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>1838</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>31</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F215" s="3">
         <v>366</v>
@@ -6847,7 +6850,7 @@
         <v>304833</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>1839</v>
       </c>
@@ -6861,7 +6864,7 @@
         <v>208</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F216" s="3">
         <v>458</v>
@@ -6870,7 +6873,7 @@
         <v>392834</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>1839</v>
       </c>
@@ -6884,7 +6887,7 @@
         <v>221</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F217" s="3">
         <v>322</v>
@@ -6893,7 +6896,7 @@
         <v>245923</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>1839</v>
       </c>
@@ -6907,7 +6910,7 @@
         <v>45</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F218" s="3">
         <v>977</v>
@@ -6916,7 +6919,7 @@
         <v>814038</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>1840</v>
       </c>
@@ -6930,7 +6933,7 @@
         <v>40</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F219" s="3">
         <v>310</v>
@@ -6939,7 +6942,7 @@
         <v>263498</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>1840</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>243</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F220" s="3">
         <v>340</v>
@@ -6962,7 +6965,7 @@
         <v>290239</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>1840</v>
       </c>
@@ -6976,7 +6979,7 @@
         <v>11</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F221" s="3">
         <v>729</v>
@@ -6985,7 +6988,7 @@
         <v>617648</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>1841</v>
       </c>
@@ -6999,7 +7002,7 @@
         <v>236</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F222" s="3">
         <v>444</v>
@@ -7008,7 +7011,7 @@
         <v>373859</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>1841</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>200</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F223" s="3">
         <v>620</v>
@@ -7031,7 +7034,7 @@
         <v>528208</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>1841</v>
       </c>
@@ -7045,7 +7048,7 @@
         <v>9</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F224" s="3">
         <v>576</v>
@@ -7054,7 +7057,7 @@
         <v>500609</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>1842</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>46</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F225" s="3">
         <v>430</v>
@@ -7077,7 +7080,7 @@
         <v>363665</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>1842</v>
       </c>
@@ -7091,7 +7094,7 @@
         <v>49</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F226" s="3">
         <v>618</v>
@@ -7100,7 +7103,7 @@
         <v>530801</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>1842</v>
       </c>
@@ -7114,7 +7117,7 @@
         <v>32</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F227" s="3">
         <v>618</v>
@@ -7123,7 +7126,7 @@
         <v>554854</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>1843</v>
       </c>
@@ -7137,7 +7140,7 @@
         <v>241</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F228" s="3">
         <v>794</v>
@@ -7146,7 +7149,7 @@
         <v>726354</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>1843</v>
       </c>
@@ -7160,7 +7163,7 @@
         <v>203</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F229" s="3">
         <v>678</v>
@@ -7169,7 +7172,7 @@
         <v>627615</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>1844</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>209</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F230" s="3">
         <v>1022</v>
@@ -7192,7 +7195,7 @@
         <v>947895</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>1845</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>59</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F231" s="3">
         <v>604</v>
@@ -7215,7 +7218,7 @@
         <v>494164</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>1845</v>
       </c>
@@ -7229,7 +7232,7 @@
         <v>245</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F232" s="3">
         <v>802</v>
@@ -7238,7 +7241,7 @@
         <v>725440</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>1846</v>
       </c>
@@ -7252,7 +7255,7 @@
         <v>26</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F233" s="3">
         <v>565</v>
@@ -7261,7 +7264,7 @@
         <v>466403</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>1846</v>
       </c>
@@ -7275,7 +7278,7 @@
         <v>54</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F234" s="3">
         <v>586</v>
@@ -7284,7 +7287,7 @@
         <v>477085</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>1846</v>
       </c>
@@ -7298,7 +7301,7 @@
         <v>1</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F235" s="3">
         <v>317</v>
@@ -7307,7 +7310,7 @@
         <v>307328</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>1847</v>
       </c>
@@ -7321,7 +7324,7 @@
         <v>60</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F236" s="3">
         <v>908</v>
@@ -7330,7 +7333,7 @@
         <v>804936</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>1848</v>
       </c>
@@ -7344,7 +7347,7 @@
         <v>35</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F237" s="3">
         <v>595</v>
@@ -7353,7 +7356,7 @@
         <v>489574</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>1849</v>
       </c>
@@ -7367,7 +7370,7 @@
         <v>234</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F238" s="3">
         <v>1311</v>
@@ -7376,7 +7379,13 @@
         <v>1101148</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>65</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="F239" s="3">
         <f>SUM(F2:F238)</f>
         <v>128024</v>

--- a/v1_201901/stat.xlsx
+++ b/v1_201901/stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tingh\AppData\Local\Packages\TheDebianProject.DebianGNULinux_76v4gfsz19hv4\LocalState\rootfs\home\td\alz\v1_201901\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD16BFC2-5D61-4A7C-AF0E-E2E91917C85A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEAA4AE-3291-43CA-8F5E-41AB6BC22F51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{CE6C85A2-ABDC-4861-9195-C19CA29644C4}"/>
   </bookViews>
@@ -813,715 +813,715 @@
     <t>261</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501962.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501963.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501964.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501965.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501966.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501967.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501968.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501969.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501970.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501971.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501972.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501973.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501974.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501975.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501976.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501977.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501978.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501979.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501980.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501981.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501982.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501983.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501984.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501985.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501986.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501987.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501988.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501989.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501990.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501991.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501992.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501993.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501994.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501995.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501996.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10628808.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10628809.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501997.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501998.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10501999.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502000.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502001.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502002.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502003.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502004.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502005.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502006.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502007.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502008.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502009.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502010.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502011.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502012.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502013.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502014.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502015.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502016.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10628810.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10628811.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10628812.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10628813.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502017.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502018.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502019.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502020.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502021.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502022.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502023.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502024.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502025.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502026.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502027.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502028.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502029.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502030.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502031.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502032.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502033.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502034.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502035.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502036.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502037.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502038.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502039.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502040.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502041.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502042.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502043.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502044.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_t9fjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter297unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_MSlRAAAAYAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter152unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_ogs4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Pww4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter186unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_XdzjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_ByBRAAAAYAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_sBE4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_NhI4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_lyFRAAAAYAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502045.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502046.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502047.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter198unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502048.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502049.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502050.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter215unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502051.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502052.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_f9bjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_cogFAAAAQAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502054.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502055.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502056.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502057.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502058.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502059.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502060.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502061.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502062.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502063.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502064.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502065.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502066.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502067.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502068.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502069.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502070.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502071.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502072.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502073.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502074.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502075.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502076.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502077.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502078.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502079.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502080.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502081.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502084.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502082.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502083.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_ehw4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_cN7jAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502085.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502087.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502088.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_M-XjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_quXjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_uhE4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_ohI4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502093.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502091.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502092.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502096.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502094.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bsb10502095.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_NtXjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_nNXjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_3tTjAAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter183unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_ZTQ4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_zDQ4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter05jahrgoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter00schugoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter64unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_whY4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter298unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_BdCEAAAAIAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_aDI4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter15jahrgoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter262unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter216unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter276unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter161unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_ZRs4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter16unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter24unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_BB04AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Wx04AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter13unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_cR44AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter208unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter162unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter43unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter01goog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter181unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter66unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter211unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter48unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_wokFAAAAQAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_fSM4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_cCQ4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Hig4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_fCg4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter32unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter82unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter245unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter34unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter170unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Qiw4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb__ClRAAAAYAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter115unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter196unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter33unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter163unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter10unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_PRU4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter96unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter55unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter83unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter226unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Chg4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Yxg4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter355unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter30unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_rzA4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter13jahrgoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_mxs4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_-hk4AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter136unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter42unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter46unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter23unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_qsaEAAAAIAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_7R44AAAAMAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_Fy9RAAAAYAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeinelitera1845unse.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_s4crAAAAYAAJ.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter201unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter77unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter00jahrgoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeinelitera1847unse.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/allgemeineliter253unkngoog.xml</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201801/xml/bub_gb_gR5RAAAAYAAJ.xml</t>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501962.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501963.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501964.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501965.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501966.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501967.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501968.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501969.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501970.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501971.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501972.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501973.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501974.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501975.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501976.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501977.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501978.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501979.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501980.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501981.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501982.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501983.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501984.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501985.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501986.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501987.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501988.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501989.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501990.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501991.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501992.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501993.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501994.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501995.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501996.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10628808.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10628809.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501997.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501998.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10501999.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502000.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502001.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502002.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502003.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502004.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502005.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502006.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502007.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502008.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502009.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502010.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502011.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502012.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502013.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502014.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502015.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502016.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10628810.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10628811.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10628812.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10628813.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502017.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502018.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502019.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502020.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502021.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502022.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502023.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502024.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502025.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502026.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502027.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502028.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502029.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502030.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502031.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502032.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502033.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502034.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502035.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502036.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502037.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502038.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502039.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502040.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502041.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502042.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502043.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502044.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_t9fjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter297unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_MSlRAAAAYAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter152unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_ogs4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_Pww4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter186unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_XdzjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_ByBRAAAAYAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_sBE4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_NhI4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_lyFRAAAAYAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502045.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502046.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502047.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter198unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502048.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502049.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502050.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter215unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502051.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502052.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_f9bjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_cogFAAAAQAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502054.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502055.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502056.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502057.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502058.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502059.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502060.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502061.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502062.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502063.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502064.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502065.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502066.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502067.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502068.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502069.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502070.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502071.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502072.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502073.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502074.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502075.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502076.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502077.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502078.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502079.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502080.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502081.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502084.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502082.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502083.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_ehw4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_cN7jAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502085.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502087.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502088.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_M-XjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_quXjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_uhE4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_ohI4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502093.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502091.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502092.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502096.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502094.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bsb10502095.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_NtXjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_nNXjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_3tTjAAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter183unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_ZTQ4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_zDQ4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter05jahrgoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter00schugoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter64unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_whY4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter298unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_BdCEAAAAIAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_aDI4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter15jahrgoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter262unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter216unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter276unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter161unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_ZRs4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter16unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter24unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_BB04AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_Wx04AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter13unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_cR44AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter208unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter162unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter43unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter01goog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter181unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter66unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter211unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter48unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_wokFAAAAQAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_fSM4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_cCQ4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_Hig4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_fCg4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter32unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter82unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter245unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter34unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter170unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_Qiw4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb__ClRAAAAYAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter115unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter196unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter33unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter163unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter10unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_PRU4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter96unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter55unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter83unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter226unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_Chg4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_Yxg4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter355unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter30unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_rzA4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter13jahrgoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_mxs4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_-hk4AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter136unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter42unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter46unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter23unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_qsaEAAAAIAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_7R44AAAAMAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_Fy9RAAAAYAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeinelitera1845unse.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_s4crAAAAYAAJ.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter201unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter77unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter00jahrgoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeinelitera1847unse.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/allgemeineliter253unkngoog.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/JULIELab/alz/master/v1_201901/xml/bub_gb_gR5RAAAAYAAJ.xml</t>
   </si>
 </sst>
 </file>
